--- a/Document/3_Test Case/Test case 혁주.xlsx
+++ b/Document/3_Test Case/Test case 혁주.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\Document\3_Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AC370-4B8A-42D0-86E3-78AC1AD0033C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB16A9-B692-4C14-9DDD-506C6F455649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId1"/>
-    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId2"/>
-    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId3"/>
-    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId4"/>
+    <sheet name="Use Case 1 my Lab 약품 보관 장소 관리" sheetId="16" r:id="rId1"/>
+    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId2"/>
+    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId3"/>
+    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId4"/>
+    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="250">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -933,13 +942,85 @@
     <t>약품 의심질병 알림 - my Lab에 Dimethylacetamide 처음 등록 후 1개월 이상 이지만 (내가 Lab에 속한지 1개월이 된 경우)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>약품 등록 - 조해성 있는 약품을 추가할 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 풍해성 있는 약품을 추가할 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 빛 반응성 있는 약품을 추가할 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 발화성 있는 약품을 추가할 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 연소성 있는 약품을 추가할 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 폭발성 있는 약품을 추가할 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 산성 물질을 추가할 때 주변에 염기성 물질이 있는 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 산성 물질을 추가할 때 주변에 염기성 물질이 없는 경우</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>약품 등록 - 염기성 물질을 추가할 때 주변에 산성 물질이 있는 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 염기성 물질을 추가할 때 주변에 산성 물질이 없는 경우</t>
+  </si>
+  <si>
+    <t>등록하는 약품 이름</t>
+  </si>
+  <si>
+    <t>Sodium Hydroxide</t>
+  </si>
+  <si>
+    <t>Sodium Carbonate</t>
+  </si>
+  <si>
+    <t>Hydrogen Peroxide</t>
+  </si>
+  <si>
+    <t>Methyl Isocyanate</t>
+  </si>
+  <si>
+    <t>Nitric Acid</t>
+  </si>
+  <si>
+    <t>Trinitrotoluene</t>
+  </si>
+  <si>
+    <t>Acetic Acid</t>
+  </si>
+  <si>
+    <t>이미 있는 약품</t>
+  </si>
+  <si>
+    <t>검색 버튼</t>
+  </si>
+  <si>
+    <t>보관 장소 선택란에 추천할 장소를 출력한다.</t>
+  </si>
+  <si>
+    <t>"산과 염기는 같은 장소에 보관할 수 없습니다" 팝업창 생성</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1059,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1100,7 +1181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -1142,6 +1223,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,10 +1536,409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E37DB4-19C9-47DA-BF11-0EC090CB3C6A}">
+  <dimension ref="B2:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="122.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:N3"/>
+  </mergeCells>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1900,11 +2389,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:T22"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2900,11 +3389,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="B2:S14"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3522,11 +4011,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>

--- a/Document/3_Test Case/Test case 혁주.xlsx
+++ b/Document/3_Test Case/Test case 혁주.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB16A9-B692-4C14-9DDD-506C6F455649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC9426-4865-4B1B-B6EB-8E60568AD706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 my Lab 약품 보관 장소 관리" sheetId="16" r:id="rId1"/>
-    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId2"/>
-    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId3"/>
-    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId4"/>
-    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId5"/>
+    <sheet name="Use Case 1 일부" sheetId="20" r:id="rId2"/>
+    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId3"/>
+    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId4"/>
+    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId5"/>
+    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="285">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -1013,6 +1014,136 @@
   </si>
   <si>
     <t>"산과 염기는 같은 장소에 보관할 수 없습니다" 팝업창 생성</t>
+  </si>
+  <si>
+    <t>추가할 약품 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장소에 존재하는 약품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 별칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 별칭 중복확인 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소수정 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시약장1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bromine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 알칼리토 금속 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시약장1에 Calcium을 추가한 뒤, 'Calcium이 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 알칼리토 금속 추가시 해당 장소에 힐로겐이 존재할 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장소에 Calcium을 보관할 경우 Bromine과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 할로겐 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시약장1에 Bromine을 추가한 뒤, 'Bromine이 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 할로겐 추가시 해당 장소에 알칼리 금속이 존재할 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장소에 Bromine을 보관할 경우 Sodium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 할로겐 추가시 해당 장소에 알칼리토 금속이 존재할 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장소에 Bromine을 보관할 경우 Calcium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 할로겐 추가시 해당 장소에 알칼리 금속과 알칼리토 금속이 존재할 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium, Calcium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장소에 Bromine을 보관할 경우 Sodium, Calcium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case ID+B2:N12B2:N13BB2:R16</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 조해성 있는 약품 추가</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 알칼리 금속 추가시 해당 장소에 힐로겐이 존재할 경우</t>
+  </si>
+  <si>
+    <t>시약장1에 Sodium Carbonate를 추가한 뒤, 'Sodium Hydroxide이 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>장소의 습도가 낮은 보관장소를 추천한다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택란에 습도가 낮은 장소를 출력한다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택란에 조도가 어두움인 장소를 출력한다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택란에 산소농도가 낮음인 장소를 출력한다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택란에 폭발방지가 유인 장소를 출력한다.</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1188,6 +1320,24 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,12 +1356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,21 +1365,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{688A0395-9AD7-48A7-851D-C938A048FF3B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1539,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E37DB4-19C9-47DA-BF11-0EC090CB3C6A}">
   <dimension ref="B2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1558,60 +1736,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="23" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="27" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="27" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -1619,23 +1797,23 @@
       <c r="D4" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="33" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="33" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="13" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="3"/>
@@ -1646,23 +1824,23 @@
       <c r="D5" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="33" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="33" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="13" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="3"/>
@@ -1673,23 +1851,23 @@
       <c r="D6" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="33" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="33" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M6" s="35"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="13" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="3"/>
@@ -1700,23 +1878,23 @@
       <c r="D7" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="33" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="33" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M7" s="35"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="13" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="3"/>
@@ -1727,23 +1905,23 @@
       <c r="D8" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="33" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="33" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="13" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="3"/>
@@ -1754,23 +1932,23 @@
       <c r="D9" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="33" t="s">
+      <c r="J9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="13" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="3"/>
@@ -1781,21 +1959,21 @@
       <c r="D10" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="33" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="16" t="s">
         <v>249</v>
       </c>
@@ -1808,21 +1986,21 @@
       <c r="D11" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="33" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="33" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="13" t="s">
         <v>248</v>
       </c>
@@ -1835,21 +2013,21 @@
       <c r="D12" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="33" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="16" t="s">
         <v>249</v>
       </c>
@@ -1862,21 +2040,21 @@
       <c r="D13" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="33" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="13" t="s">
         <v>248</v>
       </c>
@@ -1885,6 +2063,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="E13:H13"/>
@@ -1901,31 +2104,6 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
@@ -1933,11 +2111,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8330CE-4E6C-48B9-8EC9-E1220AF3055A}">
+  <dimension ref="B2:Q12"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="8.6640625" style="36"/>
+    <col min="4" max="4" width="84.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="8" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="36" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="36" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="122.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.08203125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="44"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="44"/>
+    </row>
+    <row r="4" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="41"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="41"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="41"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="41"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="8" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="37"/>
+    </row>
+    <row r="11" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="41"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="37"/>
+    </row>
+    <row r="12" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="41"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:P12"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1954,42 +2599,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="23" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -2017,9 +2662,9 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -2389,11 +3034,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2412,46 +3057,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="23" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2489,9 +3134,9 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="24"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -3389,11 +4034,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="B2:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3413,45 +4060,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="23" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3488,9 +4135,9 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="24"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4007,11 +4654,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:O37"/>
   <sheetViews>
@@ -4034,41 +4681,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="23" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -4093,9 +4740,9 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>

--- a/Document/3_Test Case/Test case 혁주.xlsx
+++ b/Document/3_Test Case/Test case 혁주.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC9426-4865-4B1B-B6EB-8E60568AD706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5062905-69A3-4F96-A2D8-5EBFA7F0D779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Use Case 1 my Lab 약품 보관 장소 관리" sheetId="16" r:id="rId1"/>
-    <sheet name="Use Case 1 일부" sheetId="20" r:id="rId2"/>
-    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId3"/>
-    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId4"/>
-    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId5"/>
-    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId6"/>
+    <sheet name="Use Case 1 일부" sheetId="20" r:id="rId1"/>
+    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId2"/>
+    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId3"/>
+    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId4"/>
+    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="260">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -944,45 +943,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>약품 등록 - 조해성 있는 약품을 추가할 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 풍해성 있는 약품을 추가할 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 빛 반응성 있는 약품을 추가할 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 발화성 있는 약품을 추가할 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 연소성 있는 약품을 추가할 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 폭발성 있는 약품을 추가할 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 산성 물질을 추가할 때 주변에 염기성 물질이 있는 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 산성 물질을 추가할 때 주변에 염기성 물질이 없는 경우</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>약품 등록 - 염기성 물질을 추가할 때 주변에 산성 물질이 있는 경우</t>
-  </si>
-  <si>
-    <t>약품 등록 - 염기성 물질을 추가할 때 주변에 산성 물질이 없는 경우</t>
-  </si>
-  <si>
-    <t>등록하는 약품 이름</t>
-  </si>
-  <si>
     <t>Sodium Hydroxide</t>
   </si>
   <si>
@@ -1004,18 +970,6 @@
     <t>Acetic Acid</t>
   </si>
   <si>
-    <t>이미 있는 약품</t>
-  </si>
-  <si>
-    <t>검색 버튼</t>
-  </si>
-  <si>
-    <t>보관 장소 선택란에 추천할 장소를 출력한다.</t>
-  </si>
-  <si>
-    <t>"산과 염기는 같은 장소에 보관할 수 없습니다" 팝업창 생성</t>
-  </si>
-  <si>
     <t>추가할 약품 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1048,102 +1002,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시약장1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bromine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 알칼리토 금속 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calcium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시약장1에 Calcium을 추가한 뒤, 'Calcium이 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 알칼리토 금속 추가시 해당 장소에 힐로겐이 존재할 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장소에 Calcium을 보관할 경우 Bromine과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 할로겐 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시약장1에 Bromine을 추가한 뒤, 'Bromine이 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 할로겐 추가시 해당 장소에 알칼리 금속이 존재할 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장소에 Bromine을 보관할 경우 Sodium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 할로겐 추가시 해당 장소에 알칼리토 금속이 존재할 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장소에 Bromine을 보관할 경우 Calcium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 할로겐 추가시 해당 장소에 알칼리 금속과 알칼리토 금속이 존재할 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sodium, Calcium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장소에 Bromine을 보관할 경우 Sodium, Calcium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Case ID+B2:N12B2:N13BB2:R16</t>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 조해성 있는 약품 추가</t>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 알칼리 금속 추가시 해당 장소에 힐로겐이 존재할 경우</t>
-  </si>
-  <si>
-    <t>시약장1에 Sodium Carbonate를 추가한 뒤, 'Sodium Hydroxide이 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>장소의 습도가 낮은 보관장소를 추천한다.</t>
-  </si>
-  <si>
-    <t>보관 장소 선택란에 습도가 낮은 장소를 출력한다.</t>
-  </si>
-  <si>
-    <t>보관 장소 선택란에 조도가 어두움인 장소를 출력한다.</t>
-  </si>
-  <si>
-    <t>보관 장소 선택란에 산소농도가 낮음인 장소를 출력한다.</t>
-  </si>
-  <si>
-    <t>보관 장소 선택란에 폭발방지가 유인 장소를 출력한다.</t>
+    <t>장소 적합성 확인 - 산성 약품 추가</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 산성 약품 추가시 해당 장소에 염기성 약품이 존재할 경우</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 염기성 약품 추가</t>
+  </si>
+  <si>
+    <t>시약장1</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 조해성 있는 약품 검색</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 풍해성 있는 약품 검색</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 빛 반응성 있는 약품 검색</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 연소성 있는 약품 검색</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 발화성 있는 약품 검색</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 폭발성 있는 약품 검색</t>
+  </si>
+  <si>
+    <t>습도가 낮은 보관장소를 추천한다.</t>
+  </si>
+  <si>
+    <t>조도가 낮은 보관장소를 추천한다.</t>
+  </si>
+  <si>
+    <t>해당 장소에 Sodium Hydroxide를 보관할 경우 Acetic Acid와 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
+  </si>
+  <si>
+    <t>해당 장소에 Acetic Acid를 보관할 경우 Sodium Hydroxide와 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
+  </si>
+  <si>
+    <t>시약장1에 Acetic Acid를 추가한 뒤, 'Acetic Acid가 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
+  </si>
+  <si>
+    <t>시약장1에 Sodium Hydroxide 추가한 뒤, Sodium Hydroxide가 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1061,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1171,6 +1079,10 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1272,7 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1320,23 +1232,29 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1356,35 +1274,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,22 +1301,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1714,852 +1620,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E37DB4-19C9-47DA-BF11-0EC090CB3C6A}">
-  <dimension ref="B2:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8330CE-4E6C-48B9-8EC9-E1220AF3055A}">
+  <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="14" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="30"/>
-    </row>
-    <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8330CE-4E6C-48B9-8EC9-E1220AF3055A}">
-  <dimension ref="B2:Q12"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="3" width="8.6640625" style="36"/>
-    <col min="4" max="4" width="84.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="8" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="36" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="36" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="122.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08203125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="36"/>
+    <col min="1" max="3" width="8.6640625" style="21"/>
+    <col min="4" max="4" width="84.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="21" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="21" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="122.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.08203125" style="21" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="50" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="48" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="44"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="42"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="26"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="26"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="E6" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="46" t="s">
+      <c r="E8" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="K3" s="46" t="s">
+      <c r="E9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="P9" s="23"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="4" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="41"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="37"/>
-    </row>
-    <row r="5" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="41"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="37"/>
-    </row>
-    <row r="6" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="41"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="37"/>
-    </row>
-    <row r="7" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="41"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="37"/>
-    </row>
-    <row r="8" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="41"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="37"/>
-    </row>
-    <row r="10" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="41"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="37"/>
-    </row>
-    <row r="11" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="41"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="37"/>
-    </row>
-    <row r="12" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="37"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2572,12 +2147,13 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:P12"/>
   <sheetViews>
@@ -2599,42 +2175,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="29" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -2662,9 +2238,9 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -3034,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:T22"/>
   <sheetViews>
@@ -3057,46 +2633,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="29" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3134,9 +2710,9 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="30"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4034,7 +3610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="B2:S14"/>
   <sheetViews>
@@ -4060,45 +3636,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="29" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -4135,9 +3711,9 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="30"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4658,7 +4234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:O37"/>
   <sheetViews>
@@ -4681,41 +4257,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="29" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -4740,9 +4316,9 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="30"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>

--- a/Document/3_Test Case/Test case 혁주.xlsx
+++ b/Document/3_Test Case/Test case 혁주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5062905-69A3-4F96-A2D8-5EBFA7F0D779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03B9E8D-1DBE-4A5C-A877-DCEB527F66DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="262">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -1052,6 +1052,12 @@
   </si>
   <si>
     <t>시약장1에 Sodium Hydroxide 추가한 뒤, Sodium Hydroxide가 시약장1에 보관 등록되었습니다. (2019.11.30)'을 화면에 출력</t>
+  </si>
+  <si>
+    <t>산소 농도가 낮은 보관장소를 추천한다.</t>
+  </si>
+  <si>
+    <t>폭발방지가 '유'인 보관장소를 추천한다.</t>
   </si>
 </sst>
 </file>
@@ -1256,6 +1262,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,37 +1313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1630,7 @@
   <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1645,43 +1651,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="41" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="42"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="29" t="s">
         <v>235</v>
       </c>
@@ -1712,9 +1718,9 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="42"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="26"/>
@@ -1879,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P7" s="23"/>
       <c r="Q7" s="22"/>
@@ -1921,7 +1927,7 @@
         <v>17</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P8" s="23"/>
       <c r="Q8" s="22"/>
@@ -1963,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="22"/>
@@ -2175,42 +2181,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="33" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -2238,9 +2244,9 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="34"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -2633,46 +2639,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="39" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="33" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2710,9 +2716,9 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="34"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="42"/>
     </row>
     <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -3636,45 +3642,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="33" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3711,9 +3717,9 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="34"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4257,41 +4263,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="39" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="33" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -4316,9 +4322,9 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="34"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>

--- a/Document/3_Test Case/Test case 혁주.xlsx
+++ b/Document/3_Test Case/Test case 혁주.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03B9E8D-1DBE-4A5C-A877-DCEB527F66DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C05BF-E7A0-4C95-8C6D-2B04E631CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,12 +1018,6 @@
     <t>시약장1</t>
   </si>
   <si>
-    <t>장소 적합성 확인 - 조해성 있는 약품 검색</t>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 풍해성 있는 약품 검색</t>
-  </si>
-  <si>
     <t>장소 적합성 확인 - 빛 반응성 있는 약품 검색</t>
   </si>
   <si>
@@ -1058,6 +1052,12 @@
   </si>
   <si>
     <t>폭발방지가 '유'인 보관장소를 추천한다.</t>
+  </si>
+  <si>
+    <t>약품 등록 - 조해성 있는 약품 검색</t>
+  </si>
+  <si>
+    <t>약품 등록 - 풍해성 있는 약품 검색</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1262,6 +1262,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,15 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1321,6 +1315,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1627,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8330CE-4E6C-48B9-8EC9-E1220AF3055A}">
-  <dimension ref="B2:Q13"/>
+  <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1639,57 +1642,58 @@
     <col min="4" max="4" width="84.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="21" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="21" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="122.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08203125" style="21" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="21"/>
+    <col min="7" max="8" width="16.33203125" style="21" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08203125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="122.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08203125" style="21" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:18" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="31" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="R2" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="32"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="29" t="s">
-        <v>235</v>
+    <row r="3" spans="2:18" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>236</v>
@@ -1697,39 +1701,40 @@
       <c r="G3" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="N3" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="O3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="32"/>
-    </row>
-    <row r="4" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="2:18" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="26"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>226</v>
@@ -1738,40 +1743,41 @@
         <v>226</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="2:18" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="26"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>226</v>
@@ -1780,40 +1786,41 @@
         <v>226</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="N5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="26"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>226</v>
@@ -1822,40 +1829,41 @@
         <v>17</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="26"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>226</v>
@@ -1864,40 +1872,41 @@
         <v>17</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="26"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>226</v>
@@ -1906,40 +1915,41 @@
         <v>17</v>
       </c>
       <c r="H8" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="26"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>226</v>
@@ -1948,40 +1958,41 @@
         <v>17</v>
       </c>
       <c r="H9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="N9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25" t="s">
         <v>244</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>226</v>
@@ -1990,40 +2001,41 @@
         <v>17</v>
       </c>
       <c r="H10" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="26"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25" t="s">
         <v>245</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>226</v>
@@ -2032,40 +2044,41 @@
         <v>228</v>
       </c>
       <c r="H11" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="26"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
         <v>246</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>226</v>
@@ -2074,40 +2087,41 @@
         <v>17</v>
       </c>
       <c r="H12" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="N12" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
         <v>245</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>226</v>
@@ -2116,42 +2130,43 @@
         <v>234</v>
       </c>
       <c r="H13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="N13" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="30"/>
+      <c r="O13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H2:O2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -2181,42 +2196,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="41" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="42"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -2244,9 +2259,9 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="42"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -2639,46 +2654,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="41" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="42"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2716,9 +2731,9 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="42"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -3642,45 +3657,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="41" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="42"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3717,9 +3732,9 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="42"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4263,41 +4278,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="47" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="41" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="42"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -4322,9 +4337,9 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>

--- a/Document/3_Test Case/Test case 혁주.xlsx
+++ b/Document/3_Test Case/Test case 혁주.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\Document\3_Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C05BF-E7A0-4C95-8C6D-2B04E631CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC479A6-7423-4B5A-A192-A3B374E30D37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,18 +1018,6 @@
     <t>시약장1</t>
   </si>
   <si>
-    <t>장소 적합성 확인 - 빛 반응성 있는 약품 검색</t>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 연소성 있는 약품 검색</t>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 발화성 있는 약품 검색</t>
-  </si>
-  <si>
-    <t>장소 적합성 확인 - 폭발성 있는 약품 검색</t>
-  </si>
-  <si>
     <t>습도가 낮은 보관장소를 추천한다.</t>
   </si>
   <si>
@@ -1058,6 +1046,23 @@
   </si>
   <si>
     <t>약품 등록 - 풍해성 있는 약품 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 등록 - 빛 반응성 있는 약품 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 등록 - 발화성 있는 약품 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 등록 - 연소성 있는 약품 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 등록 - 폭발성 있는 약품 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1065,7 +1070,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1089,6 +1094,8 @@
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1231,7 +1238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -1280,6 +1287,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,15 +1331,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1632,9 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8330CE-4E6C-48B9-8EC9-E1220AF3055A}">
   <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1668,16 +1673,16 @@
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="32" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1736,7 @@
       <c r="B4" s="26"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>226</v>
@@ -1765,7 +1770,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="28"/>
       <c r="R4" s="22"/>
@@ -1774,7 +1779,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>17</v>
@@ -1808,7 +1813,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="22"/>
@@ -1817,7 +1822,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>17</v>
@@ -1851,7 +1856,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="22"/>
@@ -1860,7 +1865,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>17</v>
@@ -1894,7 +1899,7 @@
         <v>17</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="22"/>
@@ -1903,7 +1908,7 @@
       <c r="B8" s="26"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>17</v>
@@ -1937,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="22"/>
@@ -1946,7 +1951,7 @@
       <c r="B9" s="26"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>17</v>
@@ -1980,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="22"/>
@@ -2023,7 +2028,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="22"/>
@@ -2066,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="22"/>
@@ -2109,7 +2114,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="22"/>
@@ -2152,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="30"/>
@@ -2196,42 +2201,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="39" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -2259,9 +2264,9 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="40"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -2654,46 +2659,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="39" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2731,9 +2736,9 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="40"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="43"/>
     </row>
     <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -3657,45 +3662,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="45" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="39" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3732,9 +3737,9 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="40"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -4278,41 +4283,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="45" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="39" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -4337,9 +4342,9 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="40"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
